--- a/DesignDocs/Design/Attack_Type.xlsx
+++ b/DesignDocs/Design/Attack_Type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Silverfox_x\Desktop\로그라이크\컨텐츠 기획\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB8F90D1-B09C-4E6F-A155-AA9B754D84B0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{D76BCB69-25FF-47C2-8EFE-EDA4B1620C61}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -535,11 +534,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31C4474B-D169-4071-859D-D0D0DBBC3274}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -547,6 +546,9 @@
     <col min="1" max="1" width="1.125" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.375" customWidth="1"/>
+    <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="43.5" customWidth="1"/>
   </cols>
   <sheetData>

--- a/DesignDocs/Design/Attack_Type.xlsx
+++ b/DesignDocs/Design/Attack_Type.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Attack_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,6 +147,38 @@
   </si>
   <si>
     <t>{(instant, 0, 15, 0, 15)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X축 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y축 사거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Bounce, 3, 4, 10, 3)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,12 +203,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -208,7 +246,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -220,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,6 +277,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>933450</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>4414405</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15555</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10791825" y="2000250"/>
+          <a:ext cx="3480955" cy="2739705"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -535,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J29"/>
+  <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -549,11 +639,12 @@
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="43.5" customWidth="1"/>
+    <col min="10" max="10" width="32.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +672,11 @@
       <c r="J2" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="2:10" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="K2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" ht="49.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -593,7 +687,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -602,8 +696,9 @@
       <c r="J3" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -627,8 +722,9 @@
       <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
@@ -654,8 +750,9 @@
       <c r="J5" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
@@ -683,8 +780,9 @@
       <c r="J6" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -708,8 +806,9 @@
       <c r="J7" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
@@ -731,19 +830,33 @@
       <c r="J8" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="2:11" ht="216.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -753,8 +866,9 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -764,8 +878,9 @@
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -775,8 +890,9 @@
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -786,8 +902,9 @@
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -797,8 +914,9 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -808,8 +926,9 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K15" s="1"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -819,8 +938,9 @@
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K16" s="1"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -830,8 +950,9 @@
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K17" s="1"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -841,8 +962,9 @@
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K18" s="1"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -852,8 +974,9 @@
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K19" s="1"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -863,8 +986,9 @@
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -874,8 +998,9 @@
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K21" s="1"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -885,8 +1010,9 @@
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K22" s="1"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -896,8 +1022,9 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K23" s="1"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -907,8 +1034,9 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K24" s="1"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -918,8 +1046,9 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K25" s="1"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -929,8 +1058,9 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -940,8 +1070,9 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -951,8 +1082,9 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -962,10 +1094,12 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/DesignDocs/Design/Attack_Type.xlsx
+++ b/DesignDocs/Design/Attack_Type.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Attack_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,7 +178,35 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(Bounce, 3, 4, 10, 3)}</t>
+    <t>{(Bounce, 4, 4, 10, 3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 최소 거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격 최대거리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿨타임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(Dash, 0, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x축 방향으로 점멸후 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -203,18 +231,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -259,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -628,7 +650,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -857,16 +879,30 @@
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="J10" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>

--- a/DesignDocs/Design/Attack_Type.xlsx
+++ b/DesignDocs/Design/Attack_Type.xlsx
@@ -178,10 +178,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(Bounce, 4, 4, 10, 3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dash</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -202,11 +198,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(Dash, 0, 3, 0, 10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x축 방향으로 점멸후 데미지</t>
+    <t>{(bounce, 4, 4, 10, 3)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(dash, 0, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x축 방향으로 빠르게 이동후 데미지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -650,7 +650,7 @@
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -874,25 +874,25 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>44</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>

--- a/DesignDocs/Design/Attack_Type.xlsx
+++ b/DesignDocs/Design/Attack_Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CDC2A1-B6D1-45B1-A678-CB5960246308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Attack_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,22 +199,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{(bounce, 4, 4, 10, 3)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{(dash, 0, 3, 0, 10)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>x축 방향으로 빠르게 이동후 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(bounce, 4, 4, 10, 3, 2, 2)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -231,12 +240,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -268,7 +289,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,6 +303,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -318,7 +345,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -646,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B7" sqref="B7:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -660,7 +693,7 @@
     <col min="3" max="3" width="16.375" customWidth="1"/>
     <col min="4" max="4" width="16.5" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="32.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="70.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -747,109 +780,109 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1" t="s">
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6" t="s">
         <v>30</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1" t="s">
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="1"/>
@@ -870,11 +903,15 @@
       <c r="F9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="G9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>47</v>
+      </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="4" t="s">
-        <v>44</v>
+      <c r="J9" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -898,10 +935,10 @@
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">

--- a/DesignDocs/Design/Attack_Type.xlsx
+++ b/DesignDocs/Design/Attack_Type.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\2D-Side-View-Roguelike\DesignDocs\Design\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CDC2A1-B6D1-45B1-A678-CB5960246308}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>Attack_Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,11 +182,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격 최소 거리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격 최대거리</t>
+    <t>{(dash, 0, 3, 0, 10)}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x축 방향으로 빠르게 이동후 데미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bounce 횟수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{(bounce, 4, 4, 10, 3, 2, 2)}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -195,34 +206,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>쿨타임</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(dash, 0, 3, 0, 10)}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>x축 방향으로 빠르게 이동후 데미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bounce 횟수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>타이머</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{(bounce, 4, 4, 10, 3, 2, 2)}</t>
+    <t>이동 최대 거리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -240,7 +231,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -256,6 +247,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -309,6 +306,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -348,7 +348,7 @@
         <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -679,11 +679,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:J8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -864,25 +864,25 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6" t="s">
+      <c r="G8" s="4"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="1"/>
@@ -904,14 +904,14 @@
         <v>38</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="K9" s="4"/>
     </row>
@@ -920,25 +920,23 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>43</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.3">
